--- a/需求分析/需求接口 v2.xlsx
+++ b/需求分析/需求接口 v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="555" activeTab="8"/>
+    <workbookView windowWidth="26445" windowHeight="11925" tabRatio="555" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="注册登录" sheetId="1" r:id="rId1"/>
@@ -1505,27 +1505,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1545,15 +1528,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1568,33 +1559,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -1607,7 +1575,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1615,6 +1607,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1684,7 +1684,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,127 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,6 +1833,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1847,59 +1862,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1922,23 +1884,61 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,10 +1950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,79 +1962,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2043,10 +2043,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,40 +2055,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2215,6 +2215,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2549,12 +2554,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V153"/>
   <sheetViews>
@@ -4231,7 +4235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4503,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6100,7 +6104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -11770,7 +11774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O104"/>
   <sheetViews>
@@ -12946,7 +12950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
@@ -14748,7 +14752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -16595,14 +16599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18121,7 +18125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -19750,7 +19754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -21100,13 +21104,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35:L35"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/需求接口 v2.xlsx
+++ b/需求分析/需求接口 v2.xlsx
@@ -1459,8 +1459,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1505,8 +1505,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1520,16 +1529,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1543,15 +1551,17 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1559,7 +1569,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1575,15 +1585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1597,25 +1599,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1684,7 +1684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,25 +1714,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,73 +1756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,13 +1774,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,32 +1836,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,6 +1878,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1891,16 +1918,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,33 +1942,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1950,10 +1950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,19 +1962,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,58 +1983,58 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2043,10 +2043,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,10 +2055,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2067,28 +2067,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16605,8 +16605,8 @@
   </sheetPr>
   <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
